--- a/Code/Results/Cases/Case_4_166/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_166/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9872762158487981</v>
+        <v>1.023388977412426</v>
       </c>
       <c r="D2">
-        <v>1.007310899228177</v>
+        <v>1.027504567682766</v>
       </c>
       <c r="E2">
-        <v>0.9955403584638426</v>
+        <v>1.027012581899041</v>
       </c>
       <c r="F2">
-        <v>0.9957126819046573</v>
+        <v>1.033593909381782</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037595147111076</v>
+        <v>1.029967066348059</v>
       </c>
       <c r="J2">
-        <v>1.009844269449005</v>
+        <v>1.028569472579588</v>
       </c>
       <c r="K2">
-        <v>1.018669312650163</v>
+        <v>1.030324102740825</v>
       </c>
       <c r="L2">
-        <v>1.007062174824625</v>
+        <v>1.029833551620001</v>
       </c>
       <c r="M2">
-        <v>1.007232070803805</v>
+        <v>1.036395810392662</v>
       </c>
       <c r="N2">
-        <v>1.011278364142379</v>
+        <v>1.030030159209221</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9923341012512543</v>
+        <v>1.024444389513681</v>
       </c>
       <c r="D3">
-        <v>1.010836964463953</v>
+        <v>1.028253779698649</v>
       </c>
       <c r="E3">
-        <v>1.000074592848018</v>
+        <v>1.028015397125965</v>
       </c>
       <c r="F3">
-        <v>1.001385379397514</v>
+        <v>1.034840654544225</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038783602673294</v>
+        <v>1.03014789802563</v>
       </c>
       <c r="J3">
-        <v>1.013035950556571</v>
+        <v>1.029262793063152</v>
       </c>
       <c r="K3">
-        <v>1.021333036943233</v>
+        <v>1.030881212111393</v>
       </c>
       <c r="L3">
-        <v>1.010706519333669</v>
+        <v>1.030643474224827</v>
       </c>
       <c r="M3">
-        <v>1.01200056467299</v>
+        <v>1.037450400348963</v>
       </c>
       <c r="N3">
-        <v>1.014474577803209</v>
+        <v>1.030724464287395</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9955330645679921</v>
+        <v>1.025127421028426</v>
       </c>
       <c r="D4">
-        <v>1.013069441180914</v>
+        <v>1.028738459555429</v>
       </c>
       <c r="E4">
-        <v>1.002948227076775</v>
+        <v>1.028664763832025</v>
       </c>
       <c r="F4">
-        <v>1.004974417867065</v>
+        <v>1.03564761550342</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039524028868204</v>
+        <v>1.030263505897426</v>
       </c>
       <c r="J4">
-        <v>1.015051729356542</v>
+        <v>1.029710986511492</v>
       </c>
       <c r="K4">
-        <v>1.02301264766602</v>
+        <v>1.031240927721233</v>
       </c>
       <c r="L4">
-        <v>1.013011199355938</v>
+        <v>1.031167421229479</v>
       </c>
       <c r="M4">
-        <v>1.015013174521608</v>
+        <v>1.038132471672365</v>
       </c>
       <c r="N4">
-        <v>1.016493219240289</v>
+        <v>1.03117329422184</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.996860953060275</v>
+        <v>1.025414594063063</v>
       </c>
       <c r="D5">
-        <v>1.013996630841725</v>
+        <v>1.02894219199714</v>
       </c>
       <c r="E5">
-        <v>1.004142434771305</v>
+        <v>1.028937871981171</v>
       </c>
       <c r="F5">
-        <v>1.006464548181315</v>
+        <v>1.035986918940797</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039828639254975</v>
+        <v>1.030311771569476</v>
       </c>
       <c r="J5">
-        <v>1.015887753187474</v>
+        <v>1.02989930375838</v>
       </c>
       <c r="K5">
-        <v>1.023708573953059</v>
+        <v>1.031391967241002</v>
       </c>
       <c r="L5">
-        <v>1.013967767846542</v>
+        <v>1.031387658069773</v>
       </c>
       <c r="M5">
-        <v>1.016262914149419</v>
+        <v>1.038419138987156</v>
       </c>
       <c r="N5">
-        <v>1.017330430320954</v>
+        <v>1.031361878900818</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9970829372080026</v>
+        <v>1.025462813250379</v>
       </c>
       <c r="D6">
-        <v>1.01415165655439</v>
+        <v>1.028976397973393</v>
       </c>
       <c r="E6">
-        <v>1.004342150301671</v>
+        <v>1.028983734746031</v>
       </c>
       <c r="F6">
-        <v>1.006713674116143</v>
+        <v>1.036043892860082</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039879398840291</v>
+        <v>1.030319855887539</v>
       </c>
       <c r="J6">
-        <v>1.01602746822905</v>
+        <v>1.029930916995497</v>
       </c>
       <c r="K6">
-        <v>1.023824835785078</v>
+        <v>1.031417316589842</v>
       </c>
       <c r="L6">
-        <v>1.014127670907363</v>
+        <v>1.031424635015294</v>
       </c>
       <c r="M6">
-        <v>1.016471787517671</v>
+        <v>1.038467267290624</v>
       </c>
       <c r="N6">
-        <v>1.017470343773914</v>
+        <v>1.031393537032358</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9955508735827554</v>
+        <v>1.025131258143577</v>
       </c>
       <c r="D7">
-        <v>1.013081874372039</v>
+        <v>1.028741181944941</v>
       </c>
       <c r="E7">
-        <v>1.002964237896697</v>
+        <v>1.028668412667141</v>
       </c>
       <c r="F7">
-        <v>1.004994401485473</v>
+        <v>1.035652149066939</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039528125046446</v>
+        <v>1.030264152145666</v>
       </c>
       <c r="J7">
-        <v>1.015062944629183</v>
+        <v>1.029713503221621</v>
       </c>
       <c r="K7">
-        <v>1.023021986225548</v>
+        <v>1.031242946645622</v>
       </c>
       <c r="L7">
-        <v>1.013024028862993</v>
+        <v>1.031170364164759</v>
       </c>
       <c r="M7">
-        <v>1.015029938573117</v>
+        <v>1.038136302430507</v>
       </c>
       <c r="N7">
-        <v>1.016504450439903</v>
+        <v>1.031175814505985</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9890012844546837</v>
+        <v>1.023745636489954</v>
       </c>
       <c r="D8">
-        <v>1.008512979244492</v>
+        <v>1.027757789932337</v>
       </c>
       <c r="E8">
-        <v>0.9970855686337606</v>
+        <v>1.027351388929019</v>
       </c>
       <c r="F8">
-        <v>0.9976472020117896</v>
+        <v>1.034015205100289</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038002820521346</v>
+        <v>1.030028469522719</v>
       </c>
       <c r="J8">
-        <v>1.010933419034799</v>
+        <v>1.028803872760153</v>
       </c>
       <c r="K8">
-        <v>1.019578858468094</v>
+        <v>1.030512540038106</v>
       </c>
       <c r="L8">
-        <v>1.00830516300776</v>
+        <v>1.030107295034644</v>
       </c>
       <c r="M8">
-        <v>1.008859138044666</v>
+        <v>1.036752280561881</v>
       </c>
       <c r="N8">
-        <v>1.012369060445512</v>
+        <v>1.030264892264926</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9768600539683372</v>
+        <v>1.021304812270692</v>
       </c>
       <c r="D9">
-        <v>1.000065774200434</v>
+        <v>1.026024105126535</v>
       </c>
       <c r="E9">
-        <v>0.9862371448520578</v>
+        <v>1.025034290934735</v>
       </c>
       <c r="F9">
-        <v>0.9840357898018235</v>
+        <v>1.031132436757547</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035087526836764</v>
+        <v>1.029602433447484</v>
       </c>
       <c r="J9">
-        <v>1.003257265039452</v>
+        <v>1.027197685668222</v>
       </c>
       <c r="K9">
-        <v>1.013157784354175</v>
+        <v>1.02921957270282</v>
       </c>
       <c r="L9">
-        <v>0.9995575325314121</v>
+        <v>1.028233060170746</v>
       </c>
       <c r="M9">
-        <v>0.9973932966299029</v>
+        <v>1.034310975343086</v>
       </c>
       <c r="N9">
-        <v>1.004682005431025</v>
+        <v>1.028656424203092</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9683102240511714</v>
+        <v>1.019678116835516</v>
       </c>
       <c r="D10">
-        <v>0.9941377871032502</v>
+        <v>1.024867791543917</v>
       </c>
       <c r="E10">
-        <v>0.9786343572287436</v>
+        <v>1.023492025832287</v>
       </c>
       <c r="F10">
-        <v>0.9744541460323247</v>
+        <v>1.029211683046513</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032978041337425</v>
+        <v>1.029311201301024</v>
       </c>
       <c r="J10">
-        <v>0.9978401188369033</v>
+        <v>1.026124673086638</v>
       </c>
       <c r="K10">
-        <v>1.008613698476821</v>
+        <v>1.02835364146181</v>
       </c>
       <c r="L10">
-        <v>0.9934003961185375</v>
+        <v>1.026982917367737</v>
       </c>
       <c r="M10">
-        <v>0.989300482840624</v>
+        <v>1.032681712106467</v>
       </c>
       <c r="N10">
-        <v>0.999257166259513</v>
+        <v>1.027581887820567</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9644870444827739</v>
+        <v>1.01897385584341</v>
       </c>
       <c r="D11">
-        <v>0.9914931582218535</v>
+        <v>1.024366976281895</v>
       </c>
       <c r="E11">
-        <v>0.9752441750521993</v>
+        <v>1.022824792598642</v>
       </c>
       <c r="F11">
-        <v>0.9701698437432615</v>
+        <v>1.028380216850588</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032022034247424</v>
+        <v>1.029183386312148</v>
       </c>
       <c r="J11">
-        <v>0.9954156468597044</v>
+        <v>1.025659518926282</v>
       </c>
       <c r="K11">
-        <v>1.006577304227732</v>
+        <v>1.0279777479994</v>
       </c>
       <c r="L11">
-        <v>0.9906485541004635</v>
+        <v>1.02644143603553</v>
       </c>
       <c r="M11">
-        <v>0.9856771255493181</v>
+        <v>1.031975799986176</v>
       </c>
       <c r="N11">
-        <v>0.9968292512540157</v>
+        <v>1.027116073087949</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9630475470281683</v>
+        <v>1.018712277565689</v>
       </c>
       <c r="D12">
-        <v>0.9904984483900999</v>
+        <v>1.024180932952327</v>
       </c>
       <c r="E12">
-        <v>0.9739692132740319</v>
+        <v>1.022577039112523</v>
       </c>
       <c r="F12">
-        <v>0.9685567118668833</v>
+        <v>1.028071406645019</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031660231229411</v>
+        <v>1.029135653352078</v>
       </c>
       <c r="J12">
-        <v>0.9945025282170948</v>
+        <v>1.02548665975569</v>
       </c>
       <c r="K12">
-        <v>1.005809975511782</v>
+        <v>1.027837983350003</v>
       </c>
       <c r="L12">
-        <v>0.9896127118235178</v>
+        <v>1.026240281361514</v>
       </c>
       <c r="M12">
-        <v>0.9843121694941463</v>
+        <v>1.03171352685107</v>
       </c>
       <c r="N12">
-        <v>0.9959148358781976</v>
+        <v>1.026942968437507</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9633572225583719</v>
+        <v>1.01876838629967</v>
       </c>
       <c r="D13">
-        <v>0.990712388862013</v>
+        <v>1.024220840697753</v>
       </c>
       <c r="E13">
-        <v>0.974243423453424</v>
+        <v>1.022630179157889</v>
       </c>
       <c r="F13">
-        <v>0.9689037424561553</v>
+        <v>1.028137645998775</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03173814749</v>
+        <v>1.029145903853054</v>
       </c>
       <c r="J13">
-        <v>0.9946989759708424</v>
+        <v>1.02552374226693</v>
       </c>
       <c r="K13">
-        <v>1.00597507433325</v>
+        <v>1.027867969724816</v>
       </c>
       <c r="L13">
-        <v>0.989835536420461</v>
+        <v>1.026283430828751</v>
       </c>
       <c r="M13">
-        <v>0.9846058407663315</v>
+        <v>1.031769788333499</v>
       </c>
       <c r="N13">
-        <v>0.9961115626102883</v>
+        <v>1.026980103610166</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9643684582783532</v>
+        <v>1.018952233387191</v>
       </c>
       <c r="D14">
-        <v>0.9914111918914363</v>
+        <v>1.024351598252282</v>
       </c>
       <c r="E14">
-        <v>0.975139112339285</v>
+        <v>1.022804311451537</v>
       </c>
       <c r="F14">
-        <v>0.9700369540826638</v>
+        <v>1.028354689831486</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031992265997175</v>
+        <v>1.029179445928722</v>
       </c>
       <c r="J14">
-        <v>0.9953404288335176</v>
+        <v>1.025645231970523</v>
       </c>
       <c r="K14">
-        <v>1.006514102966485</v>
+        <v>1.027966197887479</v>
       </c>
       <c r="L14">
-        <v>0.9905632151101131</v>
+        <v>1.02642480902613</v>
       </c>
       <c r="M14">
-        <v>0.985564694296907</v>
+        <v>1.03195412175964</v>
       </c>
       <c r="N14">
-        <v>0.996753926409604</v>
+        <v>1.027101765843073</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9649889054683864</v>
+        <v>1.019065509692043</v>
       </c>
       <c r="D15">
-        <v>0.9918400857490346</v>
+        <v>1.024432159890713</v>
       </c>
       <c r="E15">
-        <v>0.9756888658689479</v>
+        <v>1.022911611581527</v>
       </c>
       <c r="F15">
-        <v>0.9707322365872164</v>
+        <v>1.028488422072315</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032147939608699</v>
+        <v>1.029200078284167</v>
       </c>
       <c r="J15">
-        <v>0.9957339619390605</v>
+        <v>1.02572007515323</v>
       </c>
       <c r="K15">
-        <v>1.006844750682086</v>
+        <v>1.02802670080797</v>
       </c>
       <c r="L15">
-        <v>0.9910097233811426</v>
+        <v>1.026511913561504</v>
       </c>
       <c r="M15">
-        <v>0.9861529101541061</v>
+        <v>1.03206768689084</v>
       </c>
       <c r="N15">
-        <v>0.9971480183772959</v>
+        <v>1.027176715311684</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9685613044404163</v>
+        <v>1.01972485854829</v>
       </c>
       <c r="D16">
-        <v>0.9943116060282903</v>
+        <v>1.024901026425291</v>
       </c>
       <c r="E16">
-        <v>0.9788572053640211</v>
+        <v>1.02353632006371</v>
       </c>
       <c r="F16">
-        <v>0.9747355110044362</v>
+        <v>1.029266869486846</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03304056599717</v>
+        <v>1.029319647947632</v>
       </c>
       <c r="J16">
-        <v>0.997999302401959</v>
+        <v>1.026155532598817</v>
       </c>
       <c r="K16">
-        <v>1.00874734912734</v>
+        <v>1.028378568484464</v>
       </c>
       <c r="L16">
-        <v>0.9935811530760601</v>
+        <v>1.027018850288448</v>
       </c>
       <c r="M16">
-        <v>0.9895383447805166</v>
+        <v>1.032728551991825</v>
       </c>
       <c r="N16">
-        <v>0.9994165758834902</v>
+        <v>1.027612791156792</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9707689445033953</v>
+        <v>1.02013847928738</v>
       </c>
       <c r="D17">
-        <v>0.9958406324369171</v>
+        <v>1.025195101115681</v>
       </c>
       <c r="E17">
-        <v>0.9808177006196931</v>
+        <v>1.023928337758565</v>
       </c>
       <c r="F17">
-        <v>0.9772094546839232</v>
+        <v>1.029755230177121</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033588880615589</v>
+        <v>1.029394193185112</v>
       </c>
       <c r="J17">
-        <v>0.9993987001286416</v>
+        <v>1.026428540820849</v>
       </c>
       <c r="K17">
-        <v>1.009921985599978</v>
+        <v>1.028599034296607</v>
       </c>
       <c r="L17">
-        <v>0.9951706376080189</v>
+        <v>1.027336795012463</v>
       </c>
       <c r="M17">
-        <v>0.9916292439400183</v>
+        <v>1.03314297907833</v>
       </c>
       <c r="N17">
-        <v>1.000817960915458</v>
+        <v>1.027886187081814</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9720450315713628</v>
+        <v>1.020379747820424</v>
       </c>
       <c r="D18">
-        <v>0.9967250335736104</v>
+        <v>1.025366617933248</v>
       </c>
       <c r="E18">
-        <v>0.9819518252898249</v>
+        <v>1.024157050800744</v>
       </c>
       <c r="F18">
-        <v>0.9786395029340818</v>
+        <v>1.030040105279333</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033904615997057</v>
+        <v>1.02943750921049</v>
       </c>
       <c r="J18">
-        <v>1.000207392779506</v>
+        <v>1.026587730518904</v>
       </c>
       <c r="K18">
-        <v>1.010600537672432</v>
+        <v>1.028727537620023</v>
       </c>
       <c r="L18">
-        <v>0.9960895398742133</v>
+        <v>1.02752223124422</v>
       </c>
       <c r="M18">
-        <v>0.9928374224085185</v>
+        <v>1.033384665946188</v>
       </c>
       <c r="N18">
-        <v>1.001627802002644</v>
+        <v>1.028045602847499</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9724782132105134</v>
+        <v>1.020462015968007</v>
       </c>
       <c r="D19">
-        <v>0.9970253472733465</v>
+        <v>1.025425098693498</v>
       </c>
       <c r="E19">
-        <v>0.9823369659647443</v>
+        <v>1.024235045498972</v>
       </c>
       <c r="F19">
-        <v>0.9791249548132773</v>
+        <v>1.030137244205583</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034011589071402</v>
+        <v>1.029452250875537</v>
       </c>
       <c r="J19">
-        <v>1.000481875977639</v>
+        <v>1.026642001382887</v>
       </c>
       <c r="K19">
-        <v>1.010830805093672</v>
+        <v>1.028771338553647</v>
       </c>
       <c r="L19">
-        <v>0.996401491259856</v>
+        <v>1.027585457575391</v>
       </c>
       <c r="M19">
-        <v>0.9932474793953715</v>
+        <v>1.033467067932412</v>
       </c>
       <c r="N19">
-        <v>1.001902674998403</v>
+        <v>1.028099950782335</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9705332930656765</v>
+        <v>1.020094100610118</v>
       </c>
       <c r="D20">
-        <v>0.9956773582103952</v>
+        <v>1.025163550920295</v>
       </c>
       <c r="E20">
-        <v>0.9806083368674913</v>
+        <v>1.023886272204082</v>
       </c>
       <c r="F20">
-        <v>0.9769453743813651</v>
+        <v>1.029702831373378</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033530476507339</v>
+        <v>1.029386212247755</v>
       </c>
       <c r="J20">
-        <v>0.9992493441909097</v>
+        <v>1.026399254937919</v>
       </c>
       <c r="K20">
-        <v>1.009796644316693</v>
+        <v>1.028575389777678</v>
       </c>
       <c r="L20">
-        <v>0.995000956474689</v>
+        <v>1.027302684161751</v>
       </c>
       <c r="M20">
-        <v>0.9914060984205532</v>
+        <v>1.03309851926944</v>
       </c>
       <c r="N20">
-        <v>1.000668392875163</v>
+        <v>1.027856859609571</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9640712203183723</v>
+        <v>1.018898094577186</v>
       </c>
       <c r="D21">
-        <v>0.9912057593321629</v>
+        <v>1.02431309391219</v>
       </c>
       <c r="E21">
-        <v>0.9748757956803804</v>
+        <v>1.022753031440583</v>
       </c>
       <c r="F21">
-        <v>0.9697038639072745</v>
+        <v>1.028290774924524</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031917621917153</v>
+        <v>1.029169575711434</v>
       </c>
       <c r="J21">
-        <v>0.9951518898221842</v>
+        <v>1.025609458496372</v>
       </c>
       <c r="K21">
-        <v>1.006355678925716</v>
+        <v>1.027937276035802</v>
       </c>
       <c r="L21">
-        <v>0.9903493164378986</v>
+        <v>1.026383177345645</v>
       </c>
       <c r="M21">
-        <v>0.9852828725631582</v>
+        <v>1.031899841990674</v>
       </c>
       <c r="N21">
-        <v>0.9965651196512487</v>
+        <v>1.027065941566486</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9598953463273956</v>
+        <v>1.018146208073582</v>
       </c>
       <c r="D22">
-        <v>0.9883222923662245</v>
+        <v>1.023778272469284</v>
       </c>
       <c r="E22">
-        <v>0.9711801670350917</v>
+        <v>1.022041019221768</v>
       </c>
       <c r="F22">
-        <v>0.9650241993887873</v>
+        <v>1.027403151202976</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030864626850525</v>
+        <v>1.029031882088619</v>
       </c>
       <c r="J22">
-        <v>0.9925025754653528</v>
+        <v>1.025112417997349</v>
       </c>
       <c r="K22">
-        <v>1.004128691626931</v>
+        <v>1.027535252383724</v>
       </c>
       <c r="L22">
-        <v>0.9873450171093929</v>
+        <v>1.02580490567135</v>
       </c>
       <c r="M22">
-        <v>0.981321902259551</v>
+        <v>1.031145803850266</v>
       </c>
       <c r="N22">
-        <v>0.9939120429641504</v>
+        <v>1.026568195212943</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9621201919805854</v>
+        <v>1.018544789056472</v>
       </c>
       <c r="D23">
-        <v>0.9898579437845972</v>
+        <v>1.024061801302201</v>
       </c>
       <c r="E23">
-        <v>0.9731482893313241</v>
+        <v>1.022418422911396</v>
       </c>
       <c r="F23">
-        <v>0.9675174869066143</v>
+        <v>1.027873679653904</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031426637042905</v>
+        <v>1.029105016884953</v>
       </c>
       <c r="J23">
-        <v>0.9939142117988579</v>
+        <v>1.025375952625593</v>
       </c>
       <c r="K23">
-        <v>1.005315490182822</v>
+        <v>1.027748450072709</v>
       </c>
       <c r="L23">
-        <v>0.9889454865790198</v>
+        <v>1.026111471873219</v>
       </c>
       <c r="M23">
-        <v>0.9834326377573679</v>
+        <v>1.031545570387969</v>
       </c>
       <c r="N23">
-        <v>0.9953256839831657</v>
+        <v>1.026832104090587</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9706398095404433</v>
+        <v>1.020114153391225</v>
       </c>
       <c r="D24">
-        <v>0.9957511577900234</v>
+        <v>1.025177807132468</v>
       </c>
       <c r="E24">
-        <v>0.9807029683109649</v>
+        <v>1.02390527964503</v>
       </c>
       <c r="F24">
-        <v>0.9770647408530425</v>
+        <v>1.029726508067079</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033556879418507</v>
+        <v>1.029389818999432</v>
       </c>
       <c r="J24">
-        <v>0.9993168549962801</v>
+        <v>1.026412488126422</v>
       </c>
       <c r="K24">
-        <v>1.009853300980041</v>
+        <v>1.028586073998029</v>
       </c>
       <c r="L24">
-        <v>0.9950776534096867</v>
+        <v>1.027318097434783</v>
       </c>
       <c r="M24">
-        <v>0.9915069634413635</v>
+        <v>1.033118608870963</v>
       </c>
       <c r="N24">
-        <v>1.00073599955362</v>
+        <v>1.02787011159072</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9800750889355204</v>
+        <v>1.021935729908263</v>
       </c>
       <c r="D25">
-        <v>1.002299496574348</v>
+        <v>1.026472398639084</v>
       </c>
       <c r="E25">
-        <v>0.9891037979523397</v>
+        <v>1.025632881640839</v>
       </c>
       <c r="F25">
-        <v>0.9876393659406607</v>
+        <v>1.031877503504373</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035869436799753</v>
+        <v>1.029713845066794</v>
       </c>
       <c r="J25">
-        <v>1.005292128631686</v>
+        <v>1.0276133149435</v>
       </c>
       <c r="K25">
-        <v>1.014862220391882</v>
+        <v>1.029554533380393</v>
       </c>
       <c r="L25">
-        <v>1.001873651734583</v>
+        <v>1.028717709886815</v>
       </c>
       <c r="M25">
-        <v>1.000432644119453</v>
+        <v>1.03494241132082</v>
       </c>
       <c r="N25">
-        <v>1.006719758762962</v>
+        <v>1.029072643719614</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_166/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_166/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023388977412426</v>
+        <v>0.9872762158487984</v>
       </c>
       <c r="D2">
-        <v>1.027504567682766</v>
+        <v>1.007310899228177</v>
       </c>
       <c r="E2">
-        <v>1.027012581899041</v>
+        <v>0.9955403584638431</v>
       </c>
       <c r="F2">
-        <v>1.033593909381782</v>
+        <v>0.9957126819046577</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029967066348059</v>
+        <v>1.037595147111077</v>
       </c>
       <c r="J2">
-        <v>1.028569472579588</v>
+        <v>1.009844269449006</v>
       </c>
       <c r="K2">
-        <v>1.030324102740825</v>
+        <v>1.018669312650163</v>
       </c>
       <c r="L2">
-        <v>1.029833551620001</v>
+        <v>1.007062174824626</v>
       </c>
       <c r="M2">
-        <v>1.036395810392662</v>
+        <v>1.007232070803805</v>
       </c>
       <c r="N2">
-        <v>1.030030159209221</v>
+        <v>1.01127836414238</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024444389513681</v>
+        <v>0.9923341012512548</v>
       </c>
       <c r="D3">
-        <v>1.028253779698649</v>
+        <v>1.010836964463953</v>
       </c>
       <c r="E3">
-        <v>1.028015397125965</v>
+        <v>1.000074592848018</v>
       </c>
       <c r="F3">
-        <v>1.034840654544225</v>
+        <v>1.001385379397515</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03014789802563</v>
+        <v>1.038783602673294</v>
       </c>
       <c r="J3">
-        <v>1.029262793063152</v>
+        <v>1.013035950556571</v>
       </c>
       <c r="K3">
-        <v>1.030881212111393</v>
+        <v>1.021333036943233</v>
       </c>
       <c r="L3">
-        <v>1.030643474224827</v>
+        <v>1.010706519333669</v>
       </c>
       <c r="M3">
-        <v>1.037450400348963</v>
+        <v>1.01200056467299</v>
       </c>
       <c r="N3">
-        <v>1.030724464287395</v>
+        <v>1.014474577803209</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025127421028426</v>
+        <v>0.9955330645679934</v>
       </c>
       <c r="D4">
-        <v>1.028738459555429</v>
+        <v>1.013069441180915</v>
       </c>
       <c r="E4">
-        <v>1.028664763832025</v>
+        <v>1.002948227076776</v>
       </c>
       <c r="F4">
-        <v>1.03564761550342</v>
+        <v>1.004974417867066</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030263505897426</v>
+        <v>1.039524028868205</v>
       </c>
       <c r="J4">
-        <v>1.029710986511492</v>
+        <v>1.015051729356543</v>
       </c>
       <c r="K4">
-        <v>1.031240927721233</v>
+        <v>1.023012647666021</v>
       </c>
       <c r="L4">
-        <v>1.031167421229479</v>
+        <v>1.01301119935594</v>
       </c>
       <c r="M4">
-        <v>1.038132471672365</v>
+        <v>1.01501317452161</v>
       </c>
       <c r="N4">
-        <v>1.03117329422184</v>
+        <v>1.016493219240291</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025414594063063</v>
+        <v>0.9968609530602748</v>
       </c>
       <c r="D5">
-        <v>1.02894219199714</v>
+        <v>1.013996630841725</v>
       </c>
       <c r="E5">
-        <v>1.028937871981171</v>
+        <v>1.004142434771305</v>
       </c>
       <c r="F5">
-        <v>1.035986918940797</v>
+        <v>1.006464548181314</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030311771569476</v>
+        <v>1.039828639254975</v>
       </c>
       <c r="J5">
-        <v>1.02989930375838</v>
+        <v>1.015887753187473</v>
       </c>
       <c r="K5">
-        <v>1.031391967241002</v>
+        <v>1.023708573953059</v>
       </c>
       <c r="L5">
-        <v>1.031387658069773</v>
+        <v>1.013967767846541</v>
       </c>
       <c r="M5">
-        <v>1.038419138987156</v>
+        <v>1.016262914149419</v>
       </c>
       <c r="N5">
-        <v>1.031361878900818</v>
+        <v>1.017330430320954</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025462813250379</v>
+        <v>0.9970829372080027</v>
       </c>
       <c r="D6">
-        <v>1.028976397973393</v>
+        <v>1.01415165655439</v>
       </c>
       <c r="E6">
-        <v>1.028983734746031</v>
+        <v>1.004342150301671</v>
       </c>
       <c r="F6">
-        <v>1.036043892860082</v>
+        <v>1.006713674116142</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030319855887539</v>
+        <v>1.039879398840291</v>
       </c>
       <c r="J6">
-        <v>1.029930916995497</v>
+        <v>1.016027468229049</v>
       </c>
       <c r="K6">
-        <v>1.031417316589842</v>
+        <v>1.023824835785078</v>
       </c>
       <c r="L6">
-        <v>1.031424635015294</v>
+        <v>1.014127670907363</v>
       </c>
       <c r="M6">
-        <v>1.038467267290624</v>
+        <v>1.016471787517671</v>
       </c>
       <c r="N6">
-        <v>1.031393537032358</v>
+        <v>1.017470343773914</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025131258143577</v>
+        <v>0.9955508735827555</v>
       </c>
       <c r="D7">
-        <v>1.028741181944941</v>
+        <v>1.013081874372039</v>
       </c>
       <c r="E7">
-        <v>1.028668412667141</v>
+        <v>1.002964237896697</v>
       </c>
       <c r="F7">
-        <v>1.035652149066939</v>
+        <v>1.004994401485473</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.030264152145666</v>
+        <v>1.039528125046446</v>
       </c>
       <c r="J7">
-        <v>1.029713503221621</v>
+        <v>1.015062944629183</v>
       </c>
       <c r="K7">
-        <v>1.031242946645622</v>
+        <v>1.023021986225548</v>
       </c>
       <c r="L7">
-        <v>1.031170364164759</v>
+        <v>1.013024028862992</v>
       </c>
       <c r="M7">
-        <v>1.038136302430507</v>
+        <v>1.015029938573117</v>
       </c>
       <c r="N7">
-        <v>1.031175814505985</v>
+        <v>1.016504450439903</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023745636489954</v>
+        <v>0.9890012844546846</v>
       </c>
       <c r="D8">
-        <v>1.027757789932337</v>
+        <v>1.008512979244493</v>
       </c>
       <c r="E8">
-        <v>1.027351388929019</v>
+        <v>0.9970855686337611</v>
       </c>
       <c r="F8">
-        <v>1.034015205100289</v>
+        <v>0.99764720201179</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030028469522719</v>
+        <v>1.038002820521346</v>
       </c>
       <c r="J8">
-        <v>1.028803872760153</v>
+        <v>1.0109334190348</v>
       </c>
       <c r="K8">
-        <v>1.030512540038106</v>
+        <v>1.019578858468095</v>
       </c>
       <c r="L8">
-        <v>1.030107295034644</v>
+        <v>1.008305163007761</v>
       </c>
       <c r="M8">
-        <v>1.036752280561881</v>
+        <v>1.008859138044667</v>
       </c>
       <c r="N8">
-        <v>1.030264892264926</v>
+        <v>1.012369060445513</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021304812270692</v>
+        <v>0.9768600539683368</v>
       </c>
       <c r="D9">
-        <v>1.026024105126535</v>
+        <v>1.000065774200434</v>
       </c>
       <c r="E9">
-        <v>1.025034290934735</v>
+        <v>0.9862371448520575</v>
       </c>
       <c r="F9">
-        <v>1.031132436757547</v>
+        <v>0.9840357898018235</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029602433447484</v>
+        <v>1.035087526836764</v>
       </c>
       <c r="J9">
-        <v>1.027197685668222</v>
+        <v>1.003257265039452</v>
       </c>
       <c r="K9">
-        <v>1.02921957270282</v>
+        <v>1.013157784354175</v>
       </c>
       <c r="L9">
-        <v>1.028233060170746</v>
+        <v>0.9995575325314117</v>
       </c>
       <c r="M9">
-        <v>1.034310975343086</v>
+        <v>0.9973932966299029</v>
       </c>
       <c r="N9">
-        <v>1.028656424203092</v>
+        <v>1.004682005431025</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019678116835516</v>
+        <v>0.9683102240511712</v>
       </c>
       <c r="D10">
-        <v>1.024867791543917</v>
+        <v>0.99413778710325</v>
       </c>
       <c r="E10">
-        <v>1.023492025832287</v>
+        <v>0.978634357228743</v>
       </c>
       <c r="F10">
-        <v>1.029211683046513</v>
+        <v>0.9744541460323245</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029311201301024</v>
+        <v>1.032978041337425</v>
       </c>
       <c r="J10">
-        <v>1.026124673086638</v>
+        <v>0.997840118836903</v>
       </c>
       <c r="K10">
-        <v>1.02835364146181</v>
+        <v>1.008613698476821</v>
       </c>
       <c r="L10">
-        <v>1.026982917367737</v>
+        <v>0.9934003961185371</v>
       </c>
       <c r="M10">
-        <v>1.032681712106467</v>
+        <v>0.9893004828406237</v>
       </c>
       <c r="N10">
-        <v>1.027581887820567</v>
+        <v>0.9992571662595127</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01897385584341</v>
+        <v>0.9644870444827753</v>
       </c>
       <c r="D11">
-        <v>1.024366976281895</v>
+        <v>0.9914931582218547</v>
       </c>
       <c r="E11">
-        <v>1.022824792598642</v>
+        <v>0.9752441750522008</v>
       </c>
       <c r="F11">
-        <v>1.028380216850588</v>
+        <v>0.9701698437432628</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029183386312148</v>
+        <v>1.032022034247425</v>
       </c>
       <c r="J11">
-        <v>1.025659518926282</v>
+        <v>0.9954156468597058</v>
       </c>
       <c r="K11">
-        <v>1.0279777479994</v>
+        <v>1.006577304227733</v>
       </c>
       <c r="L11">
-        <v>1.02644143603553</v>
+        <v>0.9906485541004649</v>
       </c>
       <c r="M11">
-        <v>1.031975799986176</v>
+        <v>0.9856771255493194</v>
       </c>
       <c r="N11">
-        <v>1.027116073087949</v>
+        <v>0.9968292512540171</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018712277565689</v>
+        <v>0.9630475470281672</v>
       </c>
       <c r="D12">
-        <v>1.024180932952327</v>
+        <v>0.9904984483900992</v>
       </c>
       <c r="E12">
-        <v>1.022577039112523</v>
+        <v>0.973969213274031</v>
       </c>
       <c r="F12">
-        <v>1.028071406645019</v>
+        <v>0.9685567118668823</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029135653352078</v>
+        <v>1.031660231229411</v>
       </c>
       <c r="J12">
-        <v>1.02548665975569</v>
+        <v>0.9945025282170941</v>
       </c>
       <c r="K12">
-        <v>1.027837983350003</v>
+        <v>1.005809975511781</v>
       </c>
       <c r="L12">
-        <v>1.026240281361514</v>
+        <v>0.9896127118235168</v>
       </c>
       <c r="M12">
-        <v>1.03171352685107</v>
+        <v>0.9843121694941455</v>
       </c>
       <c r="N12">
-        <v>1.026942968437507</v>
+        <v>0.995914835878197</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01876838629967</v>
+        <v>0.9633572225583716</v>
       </c>
       <c r="D13">
-        <v>1.024220840697753</v>
+        <v>0.9907123888620125</v>
       </c>
       <c r="E13">
-        <v>1.022630179157889</v>
+        <v>0.9742434234534234</v>
       </c>
       <c r="F13">
-        <v>1.028137645998775</v>
+        <v>0.968903742456155</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029145903853054</v>
+        <v>1.03173814749</v>
       </c>
       <c r="J13">
-        <v>1.02552374226693</v>
+        <v>0.9946989759708421</v>
       </c>
       <c r="K13">
-        <v>1.027867969724816</v>
+        <v>1.00597507433325</v>
       </c>
       <c r="L13">
-        <v>1.026283430828751</v>
+        <v>0.9898355364204605</v>
       </c>
       <c r="M13">
-        <v>1.031769788333499</v>
+        <v>0.9846058407663312</v>
       </c>
       <c r="N13">
-        <v>1.026980103610166</v>
+        <v>0.9961115626102881</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.018952233387191</v>
+        <v>0.9643684582783538</v>
       </c>
       <c r="D14">
-        <v>1.024351598252282</v>
+        <v>0.9914111918914367</v>
       </c>
       <c r="E14">
-        <v>1.022804311451537</v>
+        <v>0.9751391123392852</v>
       </c>
       <c r="F14">
-        <v>1.028354689831486</v>
+        <v>0.970036954082664</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029179445928722</v>
+        <v>1.031992265997175</v>
       </c>
       <c r="J14">
-        <v>1.025645231970523</v>
+        <v>0.9953404288335181</v>
       </c>
       <c r="K14">
-        <v>1.027966197887479</v>
+        <v>1.006514102966485</v>
       </c>
       <c r="L14">
-        <v>1.02642480902613</v>
+        <v>0.9905632151101136</v>
       </c>
       <c r="M14">
-        <v>1.03195412175964</v>
+        <v>0.9855646942969071</v>
       </c>
       <c r="N14">
-        <v>1.027101765843073</v>
+        <v>0.9967539264096045</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019065509692043</v>
+        <v>0.9649889054683854</v>
       </c>
       <c r="D15">
-        <v>1.024432159890713</v>
+        <v>0.9918400857490337</v>
       </c>
       <c r="E15">
-        <v>1.022911611581527</v>
+        <v>0.9756888658689464</v>
       </c>
       <c r="F15">
-        <v>1.028488422072315</v>
+        <v>0.9707322365872159</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029200078284167</v>
+        <v>1.032147939608699</v>
       </c>
       <c r="J15">
-        <v>1.02572007515323</v>
+        <v>0.9957339619390595</v>
       </c>
       <c r="K15">
-        <v>1.02802670080797</v>
+        <v>1.006844750682085</v>
       </c>
       <c r="L15">
-        <v>1.026511913561504</v>
+        <v>0.9910097233811413</v>
       </c>
       <c r="M15">
-        <v>1.03206768689084</v>
+        <v>0.9861529101541054</v>
       </c>
       <c r="N15">
-        <v>1.027176715311684</v>
+        <v>0.9971480183772949</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01972485854829</v>
+        <v>0.9685613044404164</v>
       </c>
       <c r="D16">
-        <v>1.024901026425291</v>
+        <v>0.9943116060282898</v>
       </c>
       <c r="E16">
-        <v>1.02353632006371</v>
+        <v>0.9788572053640213</v>
       </c>
       <c r="F16">
-        <v>1.029266869486846</v>
+        <v>0.9747355110044359</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029319647947632</v>
+        <v>1.03304056599717</v>
       </c>
       <c r="J16">
-        <v>1.026155532598817</v>
+        <v>0.9979993024019591</v>
       </c>
       <c r="K16">
-        <v>1.028378568484464</v>
+        <v>1.00874734912734</v>
       </c>
       <c r="L16">
-        <v>1.027018850288448</v>
+        <v>0.9935811530760604</v>
       </c>
       <c r="M16">
-        <v>1.032728551991825</v>
+        <v>0.9895383447805164</v>
       </c>
       <c r="N16">
-        <v>1.027612791156792</v>
+        <v>0.99941657588349</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02013847928738</v>
+        <v>0.970768944503395</v>
       </c>
       <c r="D17">
-        <v>1.025195101115681</v>
+        <v>0.995840632436917</v>
       </c>
       <c r="E17">
-        <v>1.023928337758565</v>
+        <v>0.9808177006196925</v>
       </c>
       <c r="F17">
-        <v>1.029755230177121</v>
+        <v>0.9772094546839223</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029394193185112</v>
+        <v>1.033588880615589</v>
       </c>
       <c r="J17">
-        <v>1.026428540820849</v>
+        <v>0.9993987001286413</v>
       </c>
       <c r="K17">
-        <v>1.028599034296607</v>
+        <v>1.009921985599978</v>
       </c>
       <c r="L17">
-        <v>1.027336795012463</v>
+        <v>0.9951706376080185</v>
       </c>
       <c r="M17">
-        <v>1.03314297907833</v>
+        <v>0.9916292439400176</v>
       </c>
       <c r="N17">
-        <v>1.027886187081814</v>
+        <v>1.000817960915457</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020379747820424</v>
+        <v>0.9720450315713625</v>
       </c>
       <c r="D18">
-        <v>1.025366617933248</v>
+        <v>0.9967250335736103</v>
       </c>
       <c r="E18">
-        <v>1.024157050800744</v>
+        <v>0.9819518252898244</v>
       </c>
       <c r="F18">
-        <v>1.030040105279333</v>
+        <v>0.9786395029340816</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02943750921049</v>
+        <v>1.033904615997057</v>
       </c>
       <c r="J18">
-        <v>1.026587730518904</v>
+        <v>1.000207392779505</v>
       </c>
       <c r="K18">
-        <v>1.028727537620023</v>
+        <v>1.010600537672432</v>
       </c>
       <c r="L18">
-        <v>1.02752223124422</v>
+        <v>0.9960895398742129</v>
       </c>
       <c r="M18">
-        <v>1.033384665946188</v>
+        <v>0.9928374224085184</v>
       </c>
       <c r="N18">
-        <v>1.028045602847499</v>
+        <v>1.001627802002644</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020462015968007</v>
+        <v>0.9724782132105131</v>
       </c>
       <c r="D19">
-        <v>1.025425098693498</v>
+        <v>0.997025347273346</v>
       </c>
       <c r="E19">
-        <v>1.024235045498972</v>
+        <v>0.9823369659647436</v>
       </c>
       <c r="F19">
-        <v>1.030137244205583</v>
+        <v>0.979124954813277</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029452250875537</v>
+        <v>1.034011589071402</v>
       </c>
       <c r="J19">
-        <v>1.026642001382887</v>
+        <v>1.000481875977639</v>
       </c>
       <c r="K19">
-        <v>1.028771338553647</v>
+        <v>1.010830805093672</v>
       </c>
       <c r="L19">
-        <v>1.027585457575391</v>
+        <v>0.9964014912598554</v>
       </c>
       <c r="M19">
-        <v>1.033467067932412</v>
+        <v>0.9932474793953712</v>
       </c>
       <c r="N19">
-        <v>1.028099950782335</v>
+        <v>1.001902674998403</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020094100610118</v>
+        <v>0.970533293065677</v>
       </c>
       <c r="D20">
-        <v>1.025163550920295</v>
+        <v>0.9956773582103956</v>
       </c>
       <c r="E20">
-        <v>1.023886272204082</v>
+        <v>0.9806083368674918</v>
       </c>
       <c r="F20">
-        <v>1.029702831373378</v>
+        <v>0.9769453743813657</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029386212247755</v>
+        <v>1.033530476507339</v>
       </c>
       <c r="J20">
-        <v>1.026399254937919</v>
+        <v>0.9992493441909103</v>
       </c>
       <c r="K20">
-        <v>1.028575389777678</v>
+        <v>1.009796644316693</v>
       </c>
       <c r="L20">
-        <v>1.027302684161751</v>
+        <v>0.9950009564746894</v>
       </c>
       <c r="M20">
-        <v>1.03309851926944</v>
+        <v>0.9914060984205535</v>
       </c>
       <c r="N20">
-        <v>1.027856859609571</v>
+        <v>1.000668392875163</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.018898094577186</v>
+        <v>0.964071220318374</v>
       </c>
       <c r="D21">
-        <v>1.02431309391219</v>
+        <v>0.9912057593321643</v>
       </c>
       <c r="E21">
-        <v>1.022753031440583</v>
+        <v>0.9748757956803821</v>
       </c>
       <c r="F21">
-        <v>1.028290774924524</v>
+        <v>0.9697038639072761</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029169575711434</v>
+        <v>1.031917621917154</v>
       </c>
       <c r="J21">
-        <v>1.025609458496372</v>
+        <v>0.9951518898221857</v>
       </c>
       <c r="K21">
-        <v>1.027937276035802</v>
+        <v>1.006355678925717</v>
       </c>
       <c r="L21">
-        <v>1.026383177345645</v>
+        <v>0.9903493164379001</v>
       </c>
       <c r="M21">
-        <v>1.031899841990674</v>
+        <v>0.9852828725631598</v>
       </c>
       <c r="N21">
-        <v>1.027065941566486</v>
+        <v>0.9965651196512506</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018146208073582</v>
+        <v>0.9598953463273968</v>
       </c>
       <c r="D22">
-        <v>1.023778272469284</v>
+        <v>0.9883222923662253</v>
       </c>
       <c r="E22">
-        <v>1.022041019221768</v>
+        <v>0.9711801670350931</v>
       </c>
       <c r="F22">
-        <v>1.027403151202976</v>
+        <v>0.9650241993887883</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029031882088619</v>
+        <v>1.030864626850525</v>
       </c>
       <c r="J22">
-        <v>1.025112417997349</v>
+        <v>0.9925025754653539</v>
       </c>
       <c r="K22">
-        <v>1.027535252383724</v>
+        <v>1.004128691626931</v>
       </c>
       <c r="L22">
-        <v>1.02580490567135</v>
+        <v>0.9873450171093943</v>
       </c>
       <c r="M22">
-        <v>1.031145803850266</v>
+        <v>0.981321902259552</v>
       </c>
       <c r="N22">
-        <v>1.026568195212943</v>
+        <v>0.9939120429641515</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018544789056472</v>
+        <v>0.9621201919805854</v>
       </c>
       <c r="D23">
-        <v>1.024061801302201</v>
+        <v>0.9898579437845969</v>
       </c>
       <c r="E23">
-        <v>1.022418422911396</v>
+        <v>0.9731482893313238</v>
       </c>
       <c r="F23">
-        <v>1.027873679653904</v>
+        <v>0.9675174869066141</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029105016884953</v>
+        <v>1.031426637042904</v>
       </c>
       <c r="J23">
-        <v>1.025375952625593</v>
+        <v>0.9939142117988576</v>
       </c>
       <c r="K23">
-        <v>1.027748450072709</v>
+        <v>1.005315490182822</v>
       </c>
       <c r="L23">
-        <v>1.026111471873219</v>
+        <v>0.9889454865790196</v>
       </c>
       <c r="M23">
-        <v>1.031545570387969</v>
+        <v>0.9834326377573676</v>
       </c>
       <c r="N23">
-        <v>1.026832104090587</v>
+        <v>0.9953256839831657</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020114153391225</v>
+        <v>0.9706398095404424</v>
       </c>
       <c r="D24">
-        <v>1.025177807132468</v>
+        <v>0.9957511577900232</v>
       </c>
       <c r="E24">
-        <v>1.02390527964503</v>
+        <v>0.9807029683109643</v>
       </c>
       <c r="F24">
-        <v>1.029726508067079</v>
+        <v>0.977064740853042</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029389818999432</v>
+        <v>1.033556879418507</v>
       </c>
       <c r="J24">
-        <v>1.026412488126422</v>
+        <v>0.9993168549962795</v>
       </c>
       <c r="K24">
-        <v>1.028586073998029</v>
+        <v>1.009853300980041</v>
       </c>
       <c r="L24">
-        <v>1.027318097434783</v>
+        <v>0.9950776534096862</v>
       </c>
       <c r="M24">
-        <v>1.033118608870963</v>
+        <v>0.9915069634413629</v>
       </c>
       <c r="N24">
-        <v>1.02787011159072</v>
+        <v>1.00073599955362</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021935729908263</v>
+        <v>0.98007508893552</v>
       </c>
       <c r="D25">
-        <v>1.026472398639084</v>
+        <v>1.002299496574348</v>
       </c>
       <c r="E25">
-        <v>1.025632881640839</v>
+        <v>0.989103797952339</v>
       </c>
       <c r="F25">
-        <v>1.031877503504373</v>
+        <v>0.9876393659406599</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029713845066794</v>
+        <v>1.035869436799753</v>
       </c>
       <c r="J25">
-        <v>1.0276133149435</v>
+        <v>1.005292128631686</v>
       </c>
       <c r="K25">
-        <v>1.029554533380393</v>
+        <v>1.014862220391882</v>
       </c>
       <c r="L25">
-        <v>1.028717709886815</v>
+        <v>1.001873651734583</v>
       </c>
       <c r="M25">
-        <v>1.03494241132082</v>
+        <v>1.000432644119452</v>
       </c>
       <c r="N25">
-        <v>1.029072643719614</v>
+        <v>1.006719758762962</v>
       </c>
     </row>
   </sheetData>
